--- a/biology/Botanique/Mammillaria_albicoma/Mammillaria_albicoma.xlsx
+++ b/biology/Botanique/Mammillaria_albicoma/Mammillaria_albicoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammillaria albicoma est une espèce de cactus du genre Mammillaria endémique du nord-est du Mexique[1] et plus particulièrement de l'État du Nuevo León. C'est une espèce en danger d'extinction[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria albicoma est une espèce de cactus du genre Mammillaria endémique du nord-est du Mexique et plus particulièrement de l'État du Nuevo León. C'est une espèce en danger d'extinction.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est constituée d'une sphère couverte d'épines blanches placées en étoile autour de nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est constituée d'une sphère couverte d'épines blanches placées en étoile autour de nœuds doublées de poils. Ces poils servent principalement à réguler la consommation et la retenue de l'eau dans la plante, une meilleure régulation de la température et une barrière pour certains insectes.
 La floraison (en Europe et plus généralement au nord du tropique du Cancer) se fait de mars à juillet. Les fleurs d'albicoma se présentent la plupart du temps en couronne, sur la partie supérieure de la plante, exposée à la lumière du soleil et aux insectes et oiseaux pollinisateurs. Elles sont de différentes nuances de jaune.
-Cette espèce fut décrite scientifiquement pour la première fois par le botaniste Friedrich Bödeker en 1929[3].
+Cette espèce fut décrite scientifiquement pour la première fois par le botaniste Friedrich Bödeker en 1929.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme provient de deux mots latins: 
-Mammillaria: en forme de mamelle, proéminence[4].
+Mammillaria: en forme de mamelle, proéminence.
 et 
-albicoma, lui-même formé de deux mots: albi (blanc) et coma (singulier de cheveux): couvert de cheveux blancs[5].
+albicoma, lui-même formé de deux mots: albi (blanc) et coma (singulier de cheveux): couvert de cheveux blancs.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M.albicoma croît naturellement en moyenne montagne et sur les coteaux élevés[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M.albicoma croît naturellement en moyenne montagne et sur les coteaux élevés
 </t>
         </is>
       </c>
